--- a/2100.Statistics/2135.Statistical Methodology/PGM/Student example.xlsx
+++ b/2100.Statistics/2135.Statistical Methodology/PGM/Student example.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="7920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="7920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="student" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="110">
   <si>
     <t>i0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,6 +374,90 @@
   </si>
   <si>
     <t>Prob2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(I, D, G)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(I, D)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +482,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,8 +501,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -453,13 +580,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,6 +684,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -512,15 +760,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>61073</xdr:colOff>
+      <xdr:colOff>475691</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>121586</xdr:rowOff>
+      <xdr:rowOff>177615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>11207</xdr:colOff>
+      <xdr:colOff>425825</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>38957</xdr:rowOff>
+      <xdr:rowOff>94986</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -543,7 +791,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4958044" y="2037792"/>
+          <a:off x="5372662" y="2093821"/>
           <a:ext cx="5418604" cy="2046489"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1545,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52:N53"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2299,27 +2547,27 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C46">
-        <f>C29+I29</f>
+        <f t="shared" ref="C46:H46" si="2">C29+I29</f>
         <v>0.28800000000000003</v>
       </c>
       <c r="D46">
-        <f>D29+J29</f>
+        <f t="shared" si="2"/>
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="E46">
-        <f>E29+K29</f>
+        <f t="shared" si="2"/>
         <v>0.18239999999999998</v>
       </c>
       <c r="F46">
-        <f>F29+L29</f>
+        <f t="shared" si="2"/>
         <v>0.10599999999999998</v>
       </c>
       <c r="G46">
-        <f>G29+M29</f>
+        <f t="shared" si="2"/>
         <v>0.12959999999999999</v>
       </c>
       <c r="H46">
-        <f>H29+N29</f>
+        <f t="shared" si="2"/>
         <v>0.21999999999999997</v>
       </c>
     </row>
@@ -2486,11 +2734,11 @@
         <v>2</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" ref="K59:K63" si="2">F59/SUM($F$58:$F$63)</f>
+        <f t="shared" ref="K59:K63" si="3">F59/SUM($F$58:$F$63)</f>
         <v>0.32299999999999995</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" ref="L59:L60" si="3">$P$57*P62</f>
+        <f t="shared" ref="L59:L60" si="4">$P$57*P62</f>
         <v>0.3229999999999999</v>
       </c>
     </row>
@@ -2514,11 +2762,11 @@
         <v>3</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.43699999999999994</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.43699999999999989</v>
       </c>
       <c r="N60" t="s">
@@ -2545,7 +2793,7 @@
         <v>5</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999985E-3</v>
       </c>
       <c r="L61" s="1">
@@ -2580,11 +2828,11 @@
         <v>2</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6999999999999998E-2</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" ref="L62:L63" si="4">$P$58*P62</f>
+        <f t="shared" ref="L62:L63" si="5">$P$58*P62</f>
         <v>1.6999999999999994E-2</v>
       </c>
       <c r="O62" s="1" t="s">
@@ -2615,11 +2863,11 @@
         <v>3</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2999999999999996E-2</v>
       </c>
       <c r="L63" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2999999999999993E-2</v>
       </c>
       <c r="O63" s="1" t="s">
@@ -2719,4 +2967,502 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="3.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="4.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="3" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.252</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.24E-2</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="27"/>
+      <c r="C17" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="27"/>
+      <c r="C18" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="1">
+        <f>SUM(E18,E20)</f>
+        <v>0.84599999999999986</v>
+      </c>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="27"/>
+      <c r="C19" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="1">
+        <f>SUM(E19,E21)</f>
+        <v>0.154</v>
+      </c>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="27"/>
+      <c r="C20" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="27"/>
+      <c r="C21" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>